--- a/src/AppBundle/tmp/linux_server_report.xlsx
+++ b/src/AppBundle/tmp/linux_server_report.xlsx
@@ -25,9 +25,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>Date (YYYY/MM/DD)</t>
-  </si>
-  <si>
-    <t>2015-10-16</t>
   </si>
   <si>
     <t>2015-10-17</t>
@@ -121,6 +118,9 @@
   </si>
   <si>
     <t>2015-11-16</t>
+  </si>
+  <si>
+    <t>2015-11-17</t>
   </si>
   <si>
     <t>Round Trip Time (ms)</t>
@@ -253,97 +253,97 @@
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>2015-10-16</c:v>
+                  <c:v>2015-10-17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2015-10-17</c:v>
+                  <c:v>2015-10-18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2015-10-18</c:v>
+                  <c:v>2015-10-19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2015-10-19</c:v>
+                  <c:v>2015-10-20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2015-10-20</c:v>
+                  <c:v>2015-10-21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2015-10-21</c:v>
+                  <c:v>2015-10-22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2015-10-22</c:v>
+                  <c:v>2015-10-23</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2015-10-23</c:v>
+                  <c:v>2015-10-24</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2015-10-24</c:v>
+                  <c:v>2015-10-25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2015-10-25</c:v>
+                  <c:v>2015-10-26</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2015-10-26</c:v>
+                  <c:v>2015-10-27</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2015-10-27</c:v>
+                  <c:v>2015-10-28</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2015-10-28</c:v>
+                  <c:v>2015-10-29</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2015-10-29</c:v>
+                  <c:v>2015-10-30</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2015-10-30</c:v>
+                  <c:v>2015-10-31</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2015-10-31</c:v>
+                  <c:v>2015-11-01</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015-11-01</c:v>
+                  <c:v>2015-11-02</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2015-11-02</c:v>
+                  <c:v>2015-11-03</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2015-11-03</c:v>
+                  <c:v>2015-11-04</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2015-11-04</c:v>
+                  <c:v>2015-11-05</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2015-11-05</c:v>
+                  <c:v>2015-11-06</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2015-11-06</c:v>
+                  <c:v>2015-11-07</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2015-11-07</c:v>
+                  <c:v>2015-11-08</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2015-11-08</c:v>
+                  <c:v>2015-11-09</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2015-11-09</c:v>
+                  <c:v>2015-11-10</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2015-11-10</c:v>
+                  <c:v>2015-11-11</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2015-11-11</c:v>
+                  <c:v>2015-11-12</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2015-11-12</c:v>
+                  <c:v>2015-11-13</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2015-11-13</c:v>
+                  <c:v>2015-11-14</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2015-11-14</c:v>
+                  <c:v>2015-11-15</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2015-11-15</c:v>
+                  <c:v>2015-11-16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -354,82 +354,82 @@
               <c:numCache>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.88</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.92</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.8100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.9</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.88</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.82</c:v>
+                  <c:v>0.74</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.74</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.73</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.77</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.74</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.6</c:v>
+                  <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.59</c:v>
+                  <c:v>0.54</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.54</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.54</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.6</c:v>
+                  <c:v>0.61</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.61</c:v>
+                  <c:v>0.71</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0.71</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.74</c:v>
-                </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.71</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.7</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.68</c:v>
+                  <c:v>0.91</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.91</c:v>
+                  <c:v>0.71</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.71</c:v>
@@ -438,16 +438,16 @@
                   <c:v>0.71</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.71</c:v>
+                  <c:v>0.6899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0.6899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>0.6899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -598,97 +598,97 @@
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>2015-10-16</c:v>
+                  <c:v>2015-10-17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2015-10-17</c:v>
+                  <c:v>2015-10-18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2015-10-18</c:v>
+                  <c:v>2015-10-19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2015-10-19</c:v>
+                  <c:v>2015-10-20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2015-10-20</c:v>
+                  <c:v>2015-10-21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2015-10-21</c:v>
+                  <c:v>2015-10-22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2015-10-22</c:v>
+                  <c:v>2015-10-23</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2015-10-23</c:v>
+                  <c:v>2015-10-24</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2015-10-24</c:v>
+                  <c:v>2015-10-25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2015-10-25</c:v>
+                  <c:v>2015-10-26</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2015-10-26</c:v>
+                  <c:v>2015-10-27</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2015-10-27</c:v>
+                  <c:v>2015-10-28</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2015-10-28</c:v>
+                  <c:v>2015-10-29</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2015-10-29</c:v>
+                  <c:v>2015-10-30</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2015-10-30</c:v>
+                  <c:v>2015-10-31</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2015-10-31</c:v>
+                  <c:v>2015-11-01</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015-11-01</c:v>
+                  <c:v>2015-11-02</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2015-11-02</c:v>
+                  <c:v>2015-11-03</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2015-11-03</c:v>
+                  <c:v>2015-11-04</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2015-11-04</c:v>
+                  <c:v>2015-11-05</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2015-11-05</c:v>
+                  <c:v>2015-11-06</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2015-11-06</c:v>
+                  <c:v>2015-11-07</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2015-11-07</c:v>
+                  <c:v>2015-11-08</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2015-11-08</c:v>
+                  <c:v>2015-11-09</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2015-11-09</c:v>
+                  <c:v>2015-11-10</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2015-11-10</c:v>
+                  <c:v>2015-11-11</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2015-11-11</c:v>
+                  <c:v>2015-11-12</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2015-11-12</c:v>
+                  <c:v>2015-11-13</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2015-11-13</c:v>
+                  <c:v>2015-11-14</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2015-11-14</c:v>
+                  <c:v>2015-11-15</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2015-11-15</c:v>
+                  <c:v>2015-11-16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -699,61 +699,61 @@
               <c:numCache>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>1.17</c:v>
+                  <c:v>1.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1</c:v>
+                  <c:v>1.18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.18</c:v>
+                  <c:v>1.16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.16</c:v>
+                  <c:v>1.12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.12</c:v>
+                  <c:v>1.13</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.13</c:v>
+                  <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.98</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.02</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.97</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.95</c:v>
+                  <c:v>1.06</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1.06</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.06</c:v>
+                  <c:v>1.04</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>1.04</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.02</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.04</c:v>
+                  <c:v>1.03</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.03</c:v>
+                  <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.98</c:v>
+                  <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.87</c:v>
@@ -762,37 +762,37 @@
                   <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.87</c:v>
+                  <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.86</c:v>
+                  <c:v>0.93</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.93</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.9</c:v>
+                  <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.88</c:v>
+                  <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>0.87</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.86</c:v>
-                </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.87</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.9</c:v>
+                  <c:v>0.88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1065,97 +1065,97 @@
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>2015-10-16</c:v>
+                  <c:v>2015-10-17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2015-10-17</c:v>
+                  <c:v>2015-10-18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2015-10-18</c:v>
+                  <c:v>2015-10-19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2015-10-19</c:v>
+                  <c:v>2015-10-20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2015-10-20</c:v>
+                  <c:v>2015-10-21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2015-10-21</c:v>
+                  <c:v>2015-10-22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2015-10-22</c:v>
+                  <c:v>2015-10-23</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2015-10-23</c:v>
+                  <c:v>2015-10-24</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2015-10-24</c:v>
+                  <c:v>2015-10-25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2015-10-25</c:v>
+                  <c:v>2015-10-26</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2015-10-26</c:v>
+                  <c:v>2015-10-27</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2015-10-27</c:v>
+                  <c:v>2015-10-28</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2015-10-28</c:v>
+                  <c:v>2015-10-29</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2015-10-29</c:v>
+                  <c:v>2015-10-30</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2015-10-30</c:v>
+                  <c:v>2015-10-31</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2015-10-31</c:v>
+                  <c:v>2015-11-01</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015-11-01</c:v>
+                  <c:v>2015-11-02</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2015-11-02</c:v>
+                  <c:v>2015-11-03</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2015-11-03</c:v>
+                  <c:v>2015-11-04</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2015-11-04</c:v>
+                  <c:v>2015-11-05</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2015-11-05</c:v>
+                  <c:v>2015-11-06</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2015-11-06</c:v>
+                  <c:v>2015-11-07</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2015-11-07</c:v>
+                  <c:v>2015-11-08</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2015-11-08</c:v>
+                  <c:v>2015-11-09</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2015-11-09</c:v>
+                  <c:v>2015-11-10</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2015-11-10</c:v>
+                  <c:v>2015-11-11</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2015-11-11</c:v>
+                  <c:v>2015-11-12</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2015-11-12</c:v>
+                  <c:v>2015-11-13</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2015-11-13</c:v>
+                  <c:v>2015-11-14</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2015-11-14</c:v>
+                  <c:v>2015-11-15</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2015-11-15</c:v>
+                  <c:v>2015-11-16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1166,100 +1166,100 @@
               <c:numCache>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>311.32</c:v>
+                  <c:v>324.81</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>324.81</c:v>
+                  <c:v>341.63</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>341.63</c:v>
+                  <c:v>344.77</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>344.77</c:v>
+                  <c:v>282.06</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>282.06</c:v>
+                  <c:v>275.09</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>275.09</c:v>
+                  <c:v>315.69</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>315.69</c:v>
+                  <c:v>319.73</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>319.73</c:v>
+                  <c:v>327.85</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>327.85</c:v>
+                  <c:v>346.56</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>346.56</c:v>
+                  <c:v>345.33</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>345.33</c:v>
+                  <c:v>330.41</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>330.41</c:v>
+                  <c:v>303.06</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>303.06</c:v>
+                  <c:v>295.65</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>295.65</c:v>
+                  <c:v>302.06</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>302.06</c:v>
+                  <c:v>322.42</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>322.42</c:v>
+                  <c:v>265.23</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>265.23</c:v>
+                  <c:v>273.71</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>273.71</c:v>
+                  <c:v>306.58</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>306.58</c:v>
+                  <c:v>300.19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>300.19</c:v>
+                  <c:v>290.09</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>290.09</c:v>
+                  <c:v>288.2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>288.2</c:v>
+                  <c:v>303.69</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>303.69</c:v>
+                  <c:v>279.67</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>279.67</c:v>
+                  <c:v>267.79</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>267.79</c:v>
+                  <c:v>278.64</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>278.64</c:v>
+                  <c:v>267.59</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>267.59</c:v>
+                  <c:v>207.28</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>207.28</c:v>
+                  <c:v>242.94</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>242.94</c:v>
+                  <c:v>270.95</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>270.95</c:v>
+                  <c:v>290.18</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>290.18</c:v>
+                  <c:v>279.35</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>280.57</c:v>
+                  <c:v>267.65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1532,97 +1532,97 @@
               <c:strCache>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>2015-10-16</c:v>
+                  <c:v>2015-10-17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2015-10-17</c:v>
+                  <c:v>2015-10-18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2015-10-18</c:v>
+                  <c:v>2015-10-19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2015-10-19</c:v>
+                  <c:v>2015-10-20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2015-10-20</c:v>
+                  <c:v>2015-10-21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2015-10-21</c:v>
+                  <c:v>2015-10-22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2015-10-22</c:v>
+                  <c:v>2015-10-23</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2015-10-23</c:v>
+                  <c:v>2015-10-24</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2015-10-24</c:v>
+                  <c:v>2015-10-25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2015-10-25</c:v>
+                  <c:v>2015-10-26</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2015-10-26</c:v>
+                  <c:v>2015-10-27</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2015-10-27</c:v>
+                  <c:v>2015-10-28</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2015-10-28</c:v>
+                  <c:v>2015-10-29</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2015-10-29</c:v>
+                  <c:v>2015-10-30</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2015-10-30</c:v>
+                  <c:v>2015-10-31</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2015-10-31</c:v>
+                  <c:v>2015-11-01</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015-11-01</c:v>
+                  <c:v>2015-11-02</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2015-11-02</c:v>
+                  <c:v>2015-11-03</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2015-11-03</c:v>
+                  <c:v>2015-11-04</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2015-11-04</c:v>
+                  <c:v>2015-11-05</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2015-11-05</c:v>
+                  <c:v>2015-11-06</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2015-11-06</c:v>
+                  <c:v>2015-11-07</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2015-11-07</c:v>
+                  <c:v>2015-11-08</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2015-11-08</c:v>
+                  <c:v>2015-11-09</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2015-11-09</c:v>
+                  <c:v>2015-11-10</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2015-11-10</c:v>
+                  <c:v>2015-11-11</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2015-11-11</c:v>
+                  <c:v>2015-11-12</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2015-11-12</c:v>
+                  <c:v>2015-11-13</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2015-11-13</c:v>
+                  <c:v>2015-11-14</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2015-11-14</c:v>
+                  <c:v>2015-11-15</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2015-11-15</c:v>
+                  <c:v>2015-11-16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1633,100 +1633,100 @@
               <c:numCache>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>100798.06</c:v>
+                  <c:v>100890.61</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100890.61</c:v>
+                  <c:v>100971.33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100971.33</c:v>
+                  <c:v>101048.33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>101048.33</c:v>
+                  <c:v>101130.67</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>101130.67</c:v>
+                  <c:v>101171.67</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>101171.67</c:v>
+                  <c:v>101261.34</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>101261.34</c:v>
+                  <c:v>101398.29</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>101398.29</c:v>
+                  <c:v>101486.67</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>101486.67</c:v>
+                  <c:v>101554.31</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>101554.31</c:v>
+                  <c:v>101621.67</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>101621.67</c:v>
+                  <c:v>101673.79</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>101673.79</c:v>
+                  <c:v>63421.07</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>63421.07</c:v>
+                  <c:v>82245.82000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>82245.82000000001</c:v>
+                  <c:v>101764.36</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>101764.36</c:v>
+                  <c:v>101960.31</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>101960.31</c:v>
+                  <c:v>102009</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>102009</c:v>
+                  <c:v>102048.33</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>102048.33</c:v>
+                  <c:v>102132.01</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>102132.01</c:v>
+                  <c:v>102213.68</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>102213.68</c:v>
+                  <c:v>102298.33</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>102298.33</c:v>
+                  <c:v>102394</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>102394</c:v>
+                  <c:v>102491</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>102491</c:v>
+                  <c:v>102592.33</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>102592.33</c:v>
+                  <c:v>102697.88</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>102697.88</c:v>
+                  <c:v>102835.41</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>102835.41</c:v>
+                  <c:v>102929.3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>102929.3</c:v>
+                  <c:v>64282.13</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>64282.13</c:v>
+                  <c:v>82907</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>82907</c:v>
+                  <c:v>103096.16</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>103096.16</c:v>
+                  <c:v>103201.88</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>103201.88</c:v>
+                  <c:v>103305.74</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>103302.72</c:v>
+                  <c:v>103397.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1873,9 +1873,9 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>244_CPU!$B$4:$O$4</c:f>
+              <c:f>244_CPU!$B$4:$P$4</c:f>
               <c:numCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
@@ -1916,6 +1916,9 @@
                   <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.06</c:v>
                 </c:pt>
               </c:numCache>
@@ -1941,9 +1944,9 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>244_CPU!$B$3:$O$3</c:f>
+              <c:f>244_CPU!$B$3:$P$3</c:f>
               <c:numCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
@@ -1984,6 +1987,9 @@
                   <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.06</c:v>
                 </c:pt>
               </c:numCache>
@@ -2009,9 +2015,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>244_CPU!$B$1:$N$1</c:f>
+              <c:f>244_CPU!$B$1:$O$1</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>2015-11-03</c:v>
                 </c:pt>
@@ -2050,15 +2056,18 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2015-11-15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2015-11-16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>244_CPU!$B$2:$O$2</c:f>
+              <c:f>244_CPU!$B$2:$P$2</c:f>
               <c:numCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
@@ -2099,6 +2108,9 @@
                   <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -2246,9 +2258,9 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>244_Memory!$B$3:$O$3</c:f>
+              <c:f>244_Memory!$B$3:$P$3</c:f>
               <c:numCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>3834</c:v>
                 </c:pt>
@@ -2289,6 +2301,9 @@
                   <c:v>3834</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>3834</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>3834</c:v>
                 </c:pt>
               </c:numCache>
@@ -2314,9 +2329,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>244_Memory!$B$1:$N$1</c:f>
+              <c:f>244_Memory!$B$1:$O$1</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>2015-11-03</c:v>
                 </c:pt>
@@ -2355,15 +2370,18 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2015-11-15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2015-11-16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>244_Memory!$B$2:$O$2</c:f>
+              <c:f>244_Memory!$B$2:$P$2</c:f>
               <c:numCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>827.35</c:v>
                 </c:pt>
@@ -2404,7 +2422,10 @@
                   <c:v>821.8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>825.3200000000001</c:v>
+                  <c:v>825.9400000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>834.04</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2551,9 +2572,9 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>242_Memory!$B$3:$O$3</c:f>
+              <c:f>242_Memory!$B$3:$P$3</c:f>
               <c:numCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>4017</c:v>
                 </c:pt>
@@ -2594,6 +2615,9 @@
                   <c:v>4017</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>4017</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>4017</c:v>
                 </c:pt>
               </c:numCache>
@@ -2619,9 +2643,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>242_Memory!$B$1:$N$1</c:f>
+              <c:f>242_Memory!$B$1:$O$1</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>2015-11-03</c:v>
                 </c:pt>
@@ -2660,15 +2684,18 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2015-11-15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2015-11-16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>242_Memory!$B$2:$O$2</c:f>
+              <c:f>242_Memory!$B$2:$P$2</c:f>
               <c:numCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1764.79</c:v>
                 </c:pt>
@@ -2709,7 +2736,10 @@
                   <c:v>1772.93</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1778.63</c:v>
+                  <c:v>1778.67</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1781.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2856,9 +2886,9 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>242_CPU!$B$4:$O$4</c:f>
+              <c:f>242_CPU!$B$4:$P$4</c:f>
               <c:numCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1.55</c:v>
                 </c:pt>
@@ -2900,6 +2930,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1.58</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2924,9 +2957,9 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>242_CPU!$B$3:$O$3</c:f>
+              <c:f>242_CPU!$B$3:$P$3</c:f>
               <c:numCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1.58</c:v>
                 </c:pt>
@@ -2967,7 +3000,10 @@
                   <c:v>1.59</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.61</c:v>
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2992,9 +3028,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>242_CPU!$B$1:$N$1</c:f>
+              <c:f>242_CPU!$B$1:$O$1</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>2015-11-03</c:v>
                 </c:pt>
@@ -3033,15 +3069,18 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2015-11-15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2015-11-16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>242_CPU!$B$2:$O$2</c:f>
+              <c:f>242_CPU!$B$2:$P$2</c:f>
               <c:numCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1.59</c:v>
                 </c:pt>
@@ -3083,6 +3122,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3331,7 +3373,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -3368,7 +3410,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -3405,7 +3447,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -3442,7 +3484,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -3769,8 +3811,8 @@
   <cols>
     <col min="1" max="1" width="24.708252" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="22.280273" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="22.280273" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="12.854004" bestFit="true" customWidth="true" style="0"/>
@@ -3796,10 +3838,10 @@
     <col min="27" max="27" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="28" max="28" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="29" max="29" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="30" max="30" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="30" max="30" width="22.280273" bestFit="true" customWidth="true" style="0"/>
     <col min="31" max="31" width="22.280273" bestFit="true" customWidth="true" style="0"/>
-    <col min="32" max="32" width="22.280273" bestFit="true" customWidth="true" style="0"/>
-    <col min="33" max="33" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="32" max="32" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="33" max="33" width="22.280273" bestFit="true" customWidth="true" style="0"/>
     <col min="34" max="34" width="9.10" bestFit="true" style="0"/>
   </cols>
   <sheetData>
@@ -3909,82 +3951,82 @@
         <v>33</v>
       </c>
       <c r="B2">
+        <v>0.92</v>
+      </c>
+      <c r="C2">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="D2">
+        <v>0.9</v>
+      </c>
+      <c r="E2">
         <v>0.88</v>
       </c>
-      <c r="C2">
-        <v>0.92</v>
-      </c>
-      <c r="D2">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="E2">
-        <v>0.9</v>
-      </c>
       <c r="F2">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="G2">
         <v>0.82</v>
       </c>
       <c r="H2">
-        <v>0.82</v>
+        <v>0.74</v>
       </c>
       <c r="I2">
+        <v>0.73</v>
+      </c>
+      <c r="J2">
+        <v>0.77</v>
+      </c>
+      <c r="K2">
         <v>0.74</v>
       </c>
-      <c r="J2">
-        <v>0.73</v>
-      </c>
-      <c r="K2">
-        <v>0.77</v>
-      </c>
       <c r="L2">
-        <v>0.74</v>
+        <v>0.6</v>
       </c>
       <c r="M2">
         <v>0.6</v>
       </c>
       <c r="N2">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="O2">
         <v>0.59</v>
       </c>
       <c r="P2">
-        <v>0.59</v>
+        <v>0.54</v>
       </c>
       <c r="Q2">
         <v>0.54</v>
       </c>
       <c r="R2">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="S2">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="T2">
-        <v>0.61</v>
+        <v>0.71</v>
       </c>
       <c r="U2">
+        <v>0.74</v>
+      </c>
+      <c r="V2">
         <v>0.71</v>
       </c>
-      <c r="V2">
-        <v>0.74</v>
-      </c>
       <c r="W2">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="X2">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="Y2">
         <v>0.68</v>
       </c>
       <c r="Z2">
-        <v>0.68</v>
+        <v>0.91</v>
       </c>
       <c r="AA2">
-        <v>0.91</v>
+        <v>0.71</v>
       </c>
       <c r="AB2">
         <v>0.71</v>
@@ -3993,16 +4035,16 @@
         <v>0.71</v>
       </c>
       <c r="AD2">
-        <v>0.71</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AE2">
         <v>0.6899999999999999</v>
       </c>
       <c r="AF2">
+        <v>0.73</v>
+      </c>
+      <c r="AG2">
         <v>0.6899999999999999</v>
-      </c>
-      <c r="AG2">
-        <v>0.73</v>
       </c>
     </row>
   </sheetData>
@@ -4177,61 +4219,61 @@
         <v>33</v>
       </c>
       <c r="B2">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="C2">
         <v>1.1</v>
       </c>
       <c r="D2">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="E2">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="F2">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="G2">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="H2">
-        <v>1.13</v>
+        <v>0.98</v>
       </c>
       <c r="I2">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="J2">
-        <v>1.02</v>
+        <v>0.99</v>
       </c>
       <c r="K2">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="L2">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="M2">
-        <v>0.95</v>
+        <v>1.06</v>
       </c>
       <c r="N2">
         <v>1.06</v>
       </c>
       <c r="O2">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="P2">
+        <v>1.02</v>
+      </c>
+      <c r="Q2">
         <v>1.04</v>
       </c>
-      <c r="Q2">
-        <v>1.02</v>
-      </c>
       <c r="R2">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="S2">
-        <v>1.03</v>
+        <v>0.98</v>
       </c>
       <c r="T2">
-        <v>0.98</v>
+        <v>0.87</v>
       </c>
       <c r="U2">
         <v>0.87</v>
@@ -4240,37 +4282,37 @@
         <v>0.87</v>
       </c>
       <c r="W2">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="X2">
         <v>0.86</v>
       </c>
       <c r="Y2">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
       <c r="Z2">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="AA2">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="AB2">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="AC2">
         <v>0.87</v>
       </c>
       <c r="AD2">
+        <v>0.86</v>
+      </c>
+      <c r="AE2">
         <v>0.87</v>
       </c>
-      <c r="AE2">
-        <v>0.86</v>
-      </c>
       <c r="AF2">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="AG2">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
     </row>
   </sheetData>
@@ -4445,100 +4487,100 @@
         <v>34</v>
       </c>
       <c r="B2">
-        <v>311.32</v>
+        <v>324.81</v>
       </c>
       <c r="C2">
-        <v>324.81</v>
+        <v>341.63</v>
       </c>
       <c r="D2">
-        <v>341.63</v>
+        <v>344.77</v>
       </c>
       <c r="E2">
-        <v>344.77</v>
+        <v>282.06</v>
       </c>
       <c r="F2">
-        <v>282.06</v>
+        <v>275.09</v>
       </c>
       <c r="G2">
-        <v>275.09</v>
+        <v>315.69</v>
       </c>
       <c r="H2">
-        <v>315.69</v>
+        <v>319.73</v>
       </c>
       <c r="I2">
-        <v>319.73</v>
+        <v>327.85</v>
       </c>
       <c r="J2">
-        <v>327.85</v>
+        <v>346.56</v>
       </c>
       <c r="K2">
-        <v>346.56</v>
+        <v>345.33</v>
       </c>
       <c r="L2">
-        <v>345.33</v>
+        <v>330.41</v>
       </c>
       <c r="M2">
-        <v>330.41</v>
+        <v>303.06</v>
       </c>
       <c r="N2">
-        <v>303.06</v>
+        <v>295.65</v>
       </c>
       <c r="O2">
-        <v>295.65</v>
+        <v>302.06</v>
       </c>
       <c r="P2">
-        <v>302.06</v>
+        <v>322.42</v>
       </c>
       <c r="Q2">
-        <v>322.42</v>
+        <v>265.23</v>
       </c>
       <c r="R2">
-        <v>265.23</v>
+        <v>273.71</v>
       </c>
       <c r="S2">
-        <v>273.71</v>
+        <v>306.58</v>
       </c>
       <c r="T2">
-        <v>306.58</v>
+        <v>300.19</v>
       </c>
       <c r="U2">
-        <v>300.19</v>
+        <v>290.09</v>
       </c>
       <c r="V2">
-        <v>290.09</v>
+        <v>288.2</v>
       </c>
       <c r="W2">
-        <v>288.2</v>
+        <v>303.69</v>
       </c>
       <c r="X2">
-        <v>303.69</v>
+        <v>279.67</v>
       </c>
       <c r="Y2">
-        <v>279.67</v>
+        <v>267.79</v>
       </c>
       <c r="Z2">
-        <v>267.79</v>
+        <v>278.64</v>
       </c>
       <c r="AA2">
-        <v>278.64</v>
+        <v>267.59</v>
       </c>
       <c r="AB2">
-        <v>267.59</v>
+        <v>207.28</v>
       </c>
       <c r="AC2">
-        <v>207.28</v>
+        <v>242.94</v>
       </c>
       <c r="AD2">
-        <v>242.94</v>
+        <v>270.95</v>
       </c>
       <c r="AE2">
-        <v>270.95</v>
+        <v>290.18</v>
       </c>
       <c r="AF2">
-        <v>290.18</v>
+        <v>279.35</v>
       </c>
       <c r="AG2">
-        <v>280.57</v>
+        <v>267.65</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -4685,8 +4727,8 @@
     <col min="11" max="11" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="13" max="13" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="21.137695" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="21.137695" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="12.854004" bestFit="true" customWidth="true" style="0"/>
@@ -4814,100 +4856,100 @@
         <v>34</v>
       </c>
       <c r="B2">
-        <v>100798.06</v>
+        <v>100890.61</v>
       </c>
       <c r="C2">
-        <v>100890.61</v>
+        <v>100971.33</v>
       </c>
       <c r="D2">
-        <v>100971.33</v>
+        <v>101048.33</v>
       </c>
       <c r="E2">
-        <v>101048.33</v>
+        <v>101130.67</v>
       </c>
       <c r="F2">
-        <v>101130.67</v>
+        <v>101171.67</v>
       </c>
       <c r="G2">
-        <v>101171.67</v>
+        <v>101261.34</v>
       </c>
       <c r="H2">
-        <v>101261.34</v>
+        <v>101398.29</v>
       </c>
       <c r="I2">
-        <v>101398.29</v>
+        <v>101486.67</v>
       </c>
       <c r="J2">
-        <v>101486.67</v>
+        <v>101554.31</v>
       </c>
       <c r="K2">
-        <v>101554.31</v>
+        <v>101621.67</v>
       </c>
       <c r="L2">
-        <v>101621.67</v>
+        <v>101673.79</v>
       </c>
       <c r="M2">
-        <v>101673.79</v>
+        <v>63421.07</v>
       </c>
       <c r="N2">
-        <v>63421.07</v>
+        <v>82245.82000000001</v>
       </c>
       <c r="O2">
-        <v>82245.82000000001</v>
+        <v>101764.36</v>
       </c>
       <c r="P2">
-        <v>101764.36</v>
+        <v>101960.31</v>
       </c>
       <c r="Q2">
-        <v>101960.31</v>
+        <v>102009</v>
       </c>
       <c r="R2">
-        <v>102009</v>
+        <v>102048.33</v>
       </c>
       <c r="S2">
-        <v>102048.33</v>
+        <v>102132.01</v>
       </c>
       <c r="T2">
-        <v>102132.01</v>
+        <v>102213.68</v>
       </c>
       <c r="U2">
-        <v>102213.68</v>
+        <v>102298.33</v>
       </c>
       <c r="V2">
-        <v>102298.33</v>
+        <v>102394</v>
       </c>
       <c r="W2">
-        <v>102394</v>
+        <v>102491</v>
       </c>
       <c r="X2">
-        <v>102491</v>
+        <v>102592.33</v>
       </c>
       <c r="Y2">
-        <v>102592.33</v>
+        <v>102697.88</v>
       </c>
       <c r="Z2">
-        <v>102697.88</v>
+        <v>102835.41</v>
       </c>
       <c r="AA2">
-        <v>102835.41</v>
+        <v>102929.3</v>
       </c>
       <c r="AB2">
-        <v>102929.3</v>
+        <v>64282.13</v>
       </c>
       <c r="AC2">
-        <v>64282.13</v>
+        <v>82907</v>
       </c>
       <c r="AD2">
-        <v>82907</v>
+        <v>103096.16</v>
       </c>
       <c r="AE2">
-        <v>103096.16</v>
+        <v>103201.88</v>
       </c>
       <c r="AF2">
-        <v>103201.88</v>
+        <v>103305.74</v>
       </c>
       <c r="AG2">
-        <v>103302.72</v>
+        <v>103397.87</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -5033,7 +5075,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -5056,57 +5098,61 @@
     <col min="13" max="13" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="9.10" bestFit="true" style="0"/>
+    <col min="16" max="16" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="9.10" bestFit="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>27</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>28</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>29</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>30</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>31</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -5152,8 +5198,11 @@
       <c r="O2">
         <v>0.05</v>
       </c>
+      <c r="P2">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -5199,8 +5248,11 @@
       <c r="O3">
         <v>0.06</v>
       </c>
+      <c r="P3">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -5244,6 +5296,9 @@
         <v>0.06</v>
       </c>
       <c r="O4">
+        <v>0.06</v>
+      </c>
+      <c r="P4">
         <v>0.06</v>
       </c>
     </row>
@@ -5269,7 +5324,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -5292,57 +5347,61 @@
     <col min="13" max="13" width="21.137695" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="21.137695" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="9.10" bestFit="true" style="0"/>
+    <col min="16" max="16" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="9.10" bestFit="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>27</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>28</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>29</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>30</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>31</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -5386,10 +5445,13 @@
         <v>821.8</v>
       </c>
       <c r="O2">
-        <v>825.3200000000001</v>
+        <v>825.9400000000001</v>
+      </c>
+      <c r="P2">
+        <v>834.04</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -5433,6 +5495,9 @@
         <v>3834</v>
       </c>
       <c r="O3">
+        <v>3834</v>
+      </c>
+      <c r="P3">
         <v>3834</v>
       </c>
     </row>
@@ -5458,7 +5523,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -5481,57 +5546,61 @@
     <col min="13" max="13" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="9.10" bestFit="true" style="0"/>
+    <col min="16" max="16" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="9.10" bestFit="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>27</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>28</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>29</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>30</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>31</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -5575,10 +5644,13 @@
         <v>1772.93</v>
       </c>
       <c r="O2">
-        <v>1778.63</v>
+        <v>1778.67</v>
+      </c>
+      <c r="P2">
+        <v>1781.01</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -5622,6 +5694,9 @@
         <v>4017</v>
       </c>
       <c r="O3">
+        <v>4017</v>
+      </c>
+      <c r="P3">
         <v>4017</v>
       </c>
     </row>
@@ -5647,7 +5722,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -5670,57 +5745,61 @@
     <col min="13" max="13" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="9.10" bestFit="true" style="0"/>
+    <col min="16" max="16" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="9.10" bestFit="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>27</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>28</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>29</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>30</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>31</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -5766,8 +5845,11 @@
       <c r="O2">
         <v>1.6</v>
       </c>
+      <c r="P2">
+        <v>1.59</v>
+      </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -5811,10 +5893,13 @@
         <v>1.59</v>
       </c>
       <c r="O3">
-        <v>1.61</v>
+        <v>1.6</v>
+      </c>
+      <c r="P3">
+        <v>1.59</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -5859,6 +5944,9 @@
       </c>
       <c r="O4">
         <v>1.58</v>
+      </c>
+      <c r="P4">
+        <v>1.56</v>
       </c>
     </row>
   </sheetData>

--- a/src/AppBundle/tmp/linux_server_report.xlsx
+++ b/src/AppBundle/tmp/linux_server_report.xlsx
@@ -22,24 +22,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <t>Date (YYYY/MM/DD)</t>
-  </si>
-  <si>
-    <t>2015-10-17</t>
-  </si>
-  <si>
-    <t>2015-10-18</t>
-  </si>
-  <si>
-    <t>2015-10-19</t>
-  </si>
-  <si>
-    <t>2015-10-20</t>
-  </si>
-  <si>
-    <t>2015-10-21</t>
   </si>
   <si>
     <t>2015-10-22</t>
@@ -249,100 +234,85 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>242_Ping!$B$1:$AF$1</c:f>
+              <c:f>242_Ping!$B$1:$AA$1</c:f>
               <c:strCache>
-                <c:ptCount val="31"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>2015-10-17</c:v>
+                  <c:v>2015-10-22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2015-10-18</c:v>
+                  <c:v>2015-10-23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2015-10-19</c:v>
+                  <c:v>2015-10-24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2015-10-20</c:v>
+                  <c:v>2015-10-25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2015-10-21</c:v>
+                  <c:v>2015-10-26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2015-10-22</c:v>
+                  <c:v>2015-10-27</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2015-10-23</c:v>
+                  <c:v>2015-10-28</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2015-10-24</c:v>
+                  <c:v>2015-10-29</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2015-10-25</c:v>
+                  <c:v>2015-10-30</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2015-10-26</c:v>
+                  <c:v>2015-10-31</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2015-10-27</c:v>
+                  <c:v>2015-11-01</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2015-10-28</c:v>
+                  <c:v>2015-11-02</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2015-10-29</c:v>
+                  <c:v>2015-11-03</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2015-10-30</c:v>
+                  <c:v>2015-11-04</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2015-10-31</c:v>
+                  <c:v>2015-11-05</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2015-11-01</c:v>
+                  <c:v>2015-11-06</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015-11-02</c:v>
+                  <c:v>2015-11-07</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2015-11-03</c:v>
+                  <c:v>2015-11-08</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2015-11-04</c:v>
+                  <c:v>2015-11-09</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2015-11-05</c:v>
+                  <c:v>2015-11-10</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2015-11-06</c:v>
+                  <c:v>2015-11-11</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2015-11-07</c:v>
+                  <c:v>2015-11-12</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2015-11-08</c:v>
+                  <c:v>2015-11-13</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2015-11-09</c:v>
+                  <c:v>2015-11-14</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2015-11-10</c:v>
+                  <c:v>2015-11-15</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2015-11-11</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2015-11-12</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2015-11-13</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2015-11-14</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2015-11-15</c:v>
-                </c:pt>
-                <c:pt idx="30">
                   <c:v>2015-11-16</c:v>
                 </c:pt>
               </c:strCache>
@@ -350,103 +320,88 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>242_Ping!$B$2:$AG$2</c:f>
+              <c:f>242_Ping!$B$2:$AB$2</c:f>
               <c:numCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>0.92</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8100000000000001</c:v>
+                  <c:v>0.74</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9</c:v>
+                  <c:v>0.73</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.88</c:v>
+                  <c:v>0.77</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.82</c:v>
+                  <c:v>0.74</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.82</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.74</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.73</c:v>
+                  <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.77</c:v>
+                  <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.74</c:v>
+                  <c:v>0.54</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.6</c:v>
+                  <c:v>0.54</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.59</c:v>
+                  <c:v>0.61</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.59</c:v>
+                  <c:v>0.71</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.54</c:v>
+                  <c:v>0.74</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.54</c:v>
+                  <c:v>0.71</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.6</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.61</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.71</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.74</c:v>
+                  <c:v>0.91</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.71</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.7</c:v>
+                  <c:v>0.71</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.68</c:v>
+                  <c:v>0.71</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.68</c:v>
+                  <c:v>0.6899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.91</c:v>
+                  <c:v>0.6899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.71</c:v>
+                  <c:v>0.73</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.71</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.71</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.6899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.6899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.73</c:v>
-                </c:pt>
-                <c:pt idx="31">
                   <c:v>0.6899999999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -594,100 +549,85 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>244_Ping!$B$1:$AF$1</c:f>
+              <c:f>244_Ping!$B$1:$AA$1</c:f>
               <c:strCache>
-                <c:ptCount val="31"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>2015-10-17</c:v>
+                  <c:v>2015-10-22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2015-10-18</c:v>
+                  <c:v>2015-10-23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2015-10-19</c:v>
+                  <c:v>2015-10-24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2015-10-20</c:v>
+                  <c:v>2015-10-25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2015-10-21</c:v>
+                  <c:v>2015-10-26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2015-10-22</c:v>
+                  <c:v>2015-10-27</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2015-10-23</c:v>
+                  <c:v>2015-10-28</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2015-10-24</c:v>
+                  <c:v>2015-10-29</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2015-10-25</c:v>
+                  <c:v>2015-10-30</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2015-10-26</c:v>
+                  <c:v>2015-10-31</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2015-10-27</c:v>
+                  <c:v>2015-11-01</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2015-10-28</c:v>
+                  <c:v>2015-11-02</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2015-10-29</c:v>
+                  <c:v>2015-11-03</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2015-10-30</c:v>
+                  <c:v>2015-11-04</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2015-10-31</c:v>
+                  <c:v>2015-11-05</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2015-11-01</c:v>
+                  <c:v>2015-11-06</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015-11-02</c:v>
+                  <c:v>2015-11-07</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2015-11-03</c:v>
+                  <c:v>2015-11-08</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2015-11-04</c:v>
+                  <c:v>2015-11-09</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2015-11-05</c:v>
+                  <c:v>2015-11-10</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2015-11-06</c:v>
+                  <c:v>2015-11-11</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2015-11-07</c:v>
+                  <c:v>2015-11-12</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2015-11-08</c:v>
+                  <c:v>2015-11-13</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2015-11-09</c:v>
+                  <c:v>2015-11-14</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2015-11-10</c:v>
+                  <c:v>2015-11-15</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2015-11-11</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2015-11-12</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2015-11-13</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2015-11-14</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2015-11-15</c:v>
-                </c:pt>
-                <c:pt idx="30">
                   <c:v>2015-11-16</c:v>
                 </c:pt>
               </c:strCache>
@@ -695,103 +635,88 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>244_Ping!$B$2:$AG$2</c:f>
+              <c:f>244_Ping!$B$2:$AB$2</c:f>
               <c:numCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>1.1</c:v>
+                  <c:v>1.13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1</c:v>
+                  <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.18</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.16</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.12</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.13</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.98</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.02</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.99</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.97</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.06</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.06</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.04</c:v>
+                  <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.02</c:v>
+                  <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.04</c:v>
+                  <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.03</c:v>
+                  <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.98</c:v>
+                  <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>0.87</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="22">
                   <c:v>0.87</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="23">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0.87</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.86</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.86</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.93</c:v>
-                </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.88</c:v>
-                </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.87</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.87</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.86</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.87</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="31">
                   <c:v>0.88</c:v>
                 </c:pt>
               </c:numCache>
@@ -939,9 +864,9 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>242_Disk_1!$B$3:$AG$3</c:f>
+              <c:f>242_Disk_1!$B$3:$AB$3</c:f>
               <c:numCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>131893</c:v>
                 </c:pt>
@@ -1021,21 +946,6 @@
                   <c:v>131893</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>131893</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>131893</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>131893</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>131893</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>131893</c:v>
-                </c:pt>
-                <c:pt idx="31">
                   <c:v>131893</c:v>
                 </c:pt>
               </c:numCache>
@@ -1061,100 +971,85 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>242_Disk_1!$B$1:$AF$1</c:f>
+              <c:f>242_Disk_1!$B$1:$AA$1</c:f>
               <c:strCache>
-                <c:ptCount val="31"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>2015-10-17</c:v>
+                  <c:v>2015-10-22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2015-10-18</c:v>
+                  <c:v>2015-10-23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2015-10-19</c:v>
+                  <c:v>2015-10-24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2015-10-20</c:v>
+                  <c:v>2015-10-25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2015-10-21</c:v>
+                  <c:v>2015-10-26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2015-10-22</c:v>
+                  <c:v>2015-10-27</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2015-10-23</c:v>
+                  <c:v>2015-10-28</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2015-10-24</c:v>
+                  <c:v>2015-10-29</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2015-10-25</c:v>
+                  <c:v>2015-10-30</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2015-10-26</c:v>
+                  <c:v>2015-10-31</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2015-10-27</c:v>
+                  <c:v>2015-11-01</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2015-10-28</c:v>
+                  <c:v>2015-11-02</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2015-10-29</c:v>
+                  <c:v>2015-11-03</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2015-10-30</c:v>
+                  <c:v>2015-11-04</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2015-10-31</c:v>
+                  <c:v>2015-11-05</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2015-11-01</c:v>
+                  <c:v>2015-11-06</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015-11-02</c:v>
+                  <c:v>2015-11-07</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2015-11-03</c:v>
+                  <c:v>2015-11-08</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2015-11-04</c:v>
+                  <c:v>2015-11-09</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2015-11-05</c:v>
+                  <c:v>2015-11-10</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2015-11-06</c:v>
+                  <c:v>2015-11-11</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2015-11-07</c:v>
+                  <c:v>2015-11-12</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2015-11-08</c:v>
+                  <c:v>2015-11-13</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2015-11-09</c:v>
+                  <c:v>2015-11-14</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2015-11-10</c:v>
+                  <c:v>2015-11-15</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2015-11-11</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2015-11-12</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2015-11-13</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2015-11-14</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2015-11-15</c:v>
-                </c:pt>
-                <c:pt idx="30">
                   <c:v>2015-11-16</c:v>
                 </c:pt>
               </c:strCache>
@@ -1162,103 +1057,88 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>242_Disk_1!$B$2:$AG$2</c:f>
+              <c:f>242_Disk_1!$B$2:$AB$2</c:f>
               <c:numCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>324.81</c:v>
+                  <c:v>315.69</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>341.63</c:v>
+                  <c:v>319.73</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>344.77</c:v>
+                  <c:v>327.85</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>282.06</c:v>
+                  <c:v>346.56</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>275.09</c:v>
+                  <c:v>345.33</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>315.69</c:v>
+                  <c:v>330.41</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>319.73</c:v>
+                  <c:v>303.06</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>327.85</c:v>
+                  <c:v>295.65</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>346.56</c:v>
+                  <c:v>302.06</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>345.33</c:v>
+                  <c:v>322.42</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>330.41</c:v>
+                  <c:v>265.23</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>303.06</c:v>
+                  <c:v>273.71</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>295.65</c:v>
+                  <c:v>306.58</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>302.06</c:v>
+                  <c:v>300.19</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>322.42</c:v>
+                  <c:v>290.09</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>265.23</c:v>
+                  <c:v>288.2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>273.71</c:v>
+                  <c:v>303.69</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>306.58</c:v>
+                  <c:v>279.67</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>300.19</c:v>
+                  <c:v>267.79</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>290.09</c:v>
+                  <c:v>278.64</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>288.2</c:v>
+                  <c:v>267.59</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>303.69</c:v>
+                  <c:v>207.28</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>279.67</c:v>
+                  <c:v>242.94</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>267.79</c:v>
+                  <c:v>270.95</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>278.64</c:v>
+                  <c:v>290.18</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>267.59</c:v>
+                  <c:v>279.35</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>207.28</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>242.94</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>270.95</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>290.18</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>279.35</c:v>
-                </c:pt>
-                <c:pt idx="31">
                   <c:v>267.65</c:v>
                 </c:pt>
               </c:numCache>
@@ -1406,9 +1286,9 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>242_Disk_2!$B$3:$AG$3</c:f>
+              <c:f>242_Disk_2!$B$3:$AB$3</c:f>
               <c:numCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>563310</c:v>
                 </c:pt>
@@ -1488,21 +1368,6 @@
                   <c:v>563310</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>563310</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>563310</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>563310</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>563310</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>563310</c:v>
-                </c:pt>
-                <c:pt idx="31">
                   <c:v>563310</c:v>
                 </c:pt>
               </c:numCache>
@@ -1528,100 +1393,85 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>242_Disk_2!$B$1:$AF$1</c:f>
+              <c:f>242_Disk_2!$B$1:$AA$1</c:f>
               <c:strCache>
-                <c:ptCount val="31"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>2015-10-17</c:v>
+                  <c:v>2015-10-22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2015-10-18</c:v>
+                  <c:v>2015-10-23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2015-10-19</c:v>
+                  <c:v>2015-10-24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2015-10-20</c:v>
+                  <c:v>2015-10-25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2015-10-21</c:v>
+                  <c:v>2015-10-26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2015-10-22</c:v>
+                  <c:v>2015-10-27</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2015-10-23</c:v>
+                  <c:v>2015-10-28</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2015-10-24</c:v>
+                  <c:v>2015-10-29</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2015-10-25</c:v>
+                  <c:v>2015-10-30</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2015-10-26</c:v>
+                  <c:v>2015-10-31</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2015-10-27</c:v>
+                  <c:v>2015-11-01</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2015-10-28</c:v>
+                  <c:v>2015-11-02</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2015-10-29</c:v>
+                  <c:v>2015-11-03</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2015-10-30</c:v>
+                  <c:v>2015-11-04</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2015-10-31</c:v>
+                  <c:v>2015-11-05</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2015-11-01</c:v>
+                  <c:v>2015-11-06</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2015-11-02</c:v>
+                  <c:v>2015-11-07</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2015-11-03</c:v>
+                  <c:v>2015-11-08</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2015-11-04</c:v>
+                  <c:v>2015-11-09</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2015-11-05</c:v>
+                  <c:v>2015-11-10</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2015-11-06</c:v>
+                  <c:v>2015-11-11</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2015-11-07</c:v>
+                  <c:v>2015-11-12</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2015-11-08</c:v>
+                  <c:v>2015-11-13</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2015-11-09</c:v>
+                  <c:v>2015-11-14</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2015-11-10</c:v>
+                  <c:v>2015-11-15</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2015-11-11</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2015-11-12</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2015-11-13</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2015-11-14</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2015-11-15</c:v>
-                </c:pt>
-                <c:pt idx="30">
                   <c:v>2015-11-16</c:v>
                 </c:pt>
               </c:strCache>
@@ -1629,103 +1479,88 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>242_Disk_2!$B$2:$AG$2</c:f>
+              <c:f>242_Disk_2!$B$2:$AB$2</c:f>
               <c:numCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>100890.61</c:v>
+                  <c:v>101261.34</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100971.33</c:v>
+                  <c:v>101398.29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>101048.33</c:v>
+                  <c:v>101486.67</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>101130.67</c:v>
+                  <c:v>101554.31</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>101171.67</c:v>
+                  <c:v>101621.67</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>101261.34</c:v>
+                  <c:v>101673.79</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>101398.29</c:v>
+                  <c:v>63421.07</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>101486.67</c:v>
+                  <c:v>82245.82000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>101554.31</c:v>
+                  <c:v>101764.36</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>101621.67</c:v>
+                  <c:v>101960.31</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>101673.79</c:v>
+                  <c:v>102009</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>63421.07</c:v>
+                  <c:v>102048.33</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>82245.82000000001</c:v>
+                  <c:v>102132.01</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>101764.36</c:v>
+                  <c:v>102213.68</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>101960.31</c:v>
+                  <c:v>102298.33</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>102009</c:v>
+                  <c:v>102394</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>102048.33</c:v>
+                  <c:v>102491</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>102132.01</c:v>
+                  <c:v>102592.33</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>102213.68</c:v>
+                  <c:v>102697.88</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>102298.33</c:v>
+                  <c:v>102835.41</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>102394</c:v>
+                  <c:v>102929.3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>102491</c:v>
+                  <c:v>64282.13</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>102592.33</c:v>
+                  <c:v>82907</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>102697.88</c:v>
+                  <c:v>103096.16</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>102835.41</c:v>
+                  <c:v>103201.88</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>102929.3</c:v>
+                  <c:v>103305.74</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>64282.13</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>82907</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>103096.16</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>103201.88</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>103305.74</c:v>
-                </c:pt>
-                <c:pt idx="31">
                   <c:v>103397.87</c:v>
                 </c:pt>
               </c:numCache>
@@ -3225,7 +3060,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -3262,7 +3097,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -3299,7 +3134,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -3336,7 +3171,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -3801,7 +3636,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -3811,7 +3646,7 @@
   <cols>
     <col min="1" max="1" width="24.708252" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="22.280273" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="12.854004" bestFit="true" customWidth="true" style="0"/>
@@ -3833,19 +3668,14 @@
     <col min="22" max="22" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="23" max="23" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="24" max="24" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="25" max="25" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="26" max="26" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="25" max="25" width="22.280273" bestFit="true" customWidth="true" style="0"/>
+    <col min="26" max="26" width="22.280273" bestFit="true" customWidth="true" style="0"/>
     <col min="27" max="27" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="28" max="28" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="29" max="29" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="30" max="30" width="22.280273" bestFit="true" customWidth="true" style="0"/>
-    <col min="31" max="31" width="22.280273" bestFit="true" customWidth="true" style="0"/>
-    <col min="32" max="32" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="33" max="33" width="22.280273" bestFit="true" customWidth="true" style="0"/>
-    <col min="34" max="34" width="9.10" bestFit="true" style="0"/>
+    <col min="28" max="28" width="22.280273" bestFit="true" customWidth="true" style="0"/>
+    <col min="29" max="29" width="9.10" bestFit="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3930,120 +3760,90 @@
       <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
       <c r="B2">
-        <v>0.92</v>
+        <v>0.82</v>
       </c>
       <c r="C2">
-        <v>0.8100000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="D2">
-        <v>0.9</v>
+        <v>0.73</v>
       </c>
       <c r="E2">
-        <v>0.88</v>
+        <v>0.77</v>
       </c>
       <c r="F2">
-        <v>0.82</v>
+        <v>0.74</v>
       </c>
       <c r="G2">
-        <v>0.82</v>
+        <v>0.6</v>
       </c>
       <c r="H2">
-        <v>0.74</v>
+        <v>0.6</v>
       </c>
       <c r="I2">
-        <v>0.73</v>
+        <v>0.59</v>
       </c>
       <c r="J2">
-        <v>0.77</v>
+        <v>0.59</v>
       </c>
       <c r="K2">
-        <v>0.74</v>
+        <v>0.54</v>
       </c>
       <c r="L2">
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
       <c r="M2">
         <v>0.6</v>
       </c>
       <c r="N2">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="O2">
-        <v>0.59</v>
+        <v>0.71</v>
       </c>
       <c r="P2">
-        <v>0.54</v>
+        <v>0.74</v>
       </c>
       <c r="Q2">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="R2">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="S2">
-        <v>0.61</v>
+        <v>0.68</v>
       </c>
       <c r="T2">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="U2">
-        <v>0.74</v>
+        <v>0.91</v>
       </c>
       <c r="V2">
         <v>0.71</v>
       </c>
       <c r="W2">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="X2">
-        <v>0.68</v>
+        <v>0.71</v>
       </c>
       <c r="Y2">
-        <v>0.68</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Z2">
-        <v>0.91</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AA2">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AB2">
-        <v>0.71</v>
-      </c>
-      <c r="AC2">
-        <v>0.71</v>
-      </c>
-      <c r="AD2">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AE2">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AF2">
-        <v>0.73</v>
-      </c>
-      <c r="AG2">
         <v>0.6899999999999999</v>
       </c>
     </row>
@@ -4069,7 +3869,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -4105,15 +3905,10 @@
     <col min="26" max="26" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="27" max="27" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="28" max="28" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="29" max="29" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="30" max="30" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="31" max="31" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="32" max="32" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="33" max="33" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="34" max="34" width="9.10" bestFit="true" style="0"/>
+    <col min="29" max="29" width="9.10" bestFit="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4198,120 +3993,90 @@
       <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
       <c r="B2">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="C2">
-        <v>1.1</v>
+        <v>0.98</v>
       </c>
       <c r="D2">
-        <v>1.18</v>
+        <v>1.02</v>
       </c>
       <c r="E2">
-        <v>1.16</v>
+        <v>0.99</v>
       </c>
       <c r="F2">
-        <v>1.12</v>
+        <v>0.97</v>
       </c>
       <c r="G2">
-        <v>1.13</v>
+        <v>0.95</v>
       </c>
       <c r="H2">
+        <v>1.06</v>
+      </c>
+      <c r="I2">
+        <v>1.06</v>
+      </c>
+      <c r="J2">
+        <v>1.04</v>
+      </c>
+      <c r="K2">
+        <v>1.02</v>
+      </c>
+      <c r="L2">
+        <v>1.04</v>
+      </c>
+      <c r="M2">
+        <v>1.03</v>
+      </c>
+      <c r="N2">
         <v>0.98</v>
       </c>
-      <c r="I2">
-        <v>1.02</v>
-      </c>
-      <c r="J2">
-        <v>0.99</v>
-      </c>
-      <c r="K2">
-        <v>0.97</v>
-      </c>
-      <c r="L2">
-        <v>0.95</v>
-      </c>
-      <c r="M2">
-        <v>1.06</v>
-      </c>
-      <c r="N2">
-        <v>1.06</v>
-      </c>
       <c r="O2">
-        <v>1.04</v>
+        <v>0.87</v>
       </c>
       <c r="P2">
-        <v>1.02</v>
+        <v>0.87</v>
       </c>
       <c r="Q2">
-        <v>1.04</v>
+        <v>0.87</v>
       </c>
       <c r="R2">
-        <v>1.03</v>
+        <v>0.86</v>
       </c>
       <c r="S2">
-        <v>0.98</v>
+        <v>0.86</v>
       </c>
       <c r="T2">
+        <v>0.93</v>
+      </c>
+      <c r="U2">
+        <v>0.9</v>
+      </c>
+      <c r="V2">
+        <v>0.88</v>
+      </c>
+      <c r="W2">
         <v>0.87</v>
       </c>
-      <c r="U2">
+      <c r="X2">
         <v>0.87</v>
       </c>
-      <c r="V2">
+      <c r="Y2">
+        <v>0.86</v>
+      </c>
+      <c r="Z2">
         <v>0.87</v>
       </c>
-      <c r="W2">
-        <v>0.86</v>
-      </c>
-      <c r="X2">
-        <v>0.86</v>
-      </c>
-      <c r="Y2">
-        <v>0.93</v>
-      </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>0.9</v>
       </c>
-      <c r="AA2">
-        <v>0.88</v>
-      </c>
       <c r="AB2">
-        <v>0.87</v>
-      </c>
-      <c r="AC2">
-        <v>0.87</v>
-      </c>
-      <c r="AD2">
-        <v>0.86</v>
-      </c>
-      <c r="AE2">
-        <v>0.87</v>
-      </c>
-      <c r="AF2">
-        <v>0.9</v>
-      </c>
-      <c r="AG2">
         <v>0.88</v>
       </c>
     </row>
@@ -4337,7 +4102,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -4373,15 +4138,10 @@
     <col min="26" max="26" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="27" max="27" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="28" max="28" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="29" max="29" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="30" max="30" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="31" max="31" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="32" max="32" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="33" max="33" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="34" max="34" width="9.10" bestFit="true" style="0"/>
+    <col min="29" max="29" width="9.10" bestFit="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4466,126 +4226,96 @@
       <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" t="s">
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="B2">
+        <v>315.69</v>
+      </c>
+      <c r="C2">
+        <v>319.73</v>
+      </c>
+      <c r="D2">
+        <v>327.85</v>
+      </c>
+      <c r="E2">
+        <v>346.56</v>
+      </c>
+      <c r="F2">
+        <v>345.33</v>
+      </c>
+      <c r="G2">
+        <v>330.41</v>
+      </c>
+      <c r="H2">
+        <v>303.06</v>
+      </c>
+      <c r="I2">
+        <v>295.65</v>
+      </c>
+      <c r="J2">
+        <v>302.06</v>
+      </c>
+      <c r="K2">
+        <v>322.42</v>
+      </c>
+      <c r="L2">
+        <v>265.23</v>
+      </c>
+      <c r="M2">
+        <v>273.71</v>
+      </c>
+      <c r="N2">
+        <v>306.58</v>
+      </c>
+      <c r="O2">
+        <v>300.19</v>
+      </c>
+      <c r="P2">
+        <v>290.09</v>
+      </c>
+      <c r="Q2">
+        <v>288.2</v>
+      </c>
+      <c r="R2">
+        <v>303.69</v>
+      </c>
+      <c r="S2">
+        <v>279.67</v>
+      </c>
+      <c r="T2">
+        <v>267.79</v>
+      </c>
+      <c r="U2">
+        <v>278.64</v>
+      </c>
+      <c r="V2">
+        <v>267.59</v>
+      </c>
+      <c r="W2">
+        <v>207.28</v>
+      </c>
+      <c r="X2">
+        <v>242.94</v>
+      </c>
+      <c r="Y2">
+        <v>270.95</v>
+      </c>
+      <c r="Z2">
+        <v>290.18</v>
+      </c>
+      <c r="AA2">
+        <v>279.35</v>
+      </c>
+      <c r="AB2">
+        <v>267.65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
+      <c r="A3" t="s">
         <v>30</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2">
-        <v>324.81</v>
-      </c>
-      <c r="C2">
-        <v>341.63</v>
-      </c>
-      <c r="D2">
-        <v>344.77</v>
-      </c>
-      <c r="E2">
-        <v>282.06</v>
-      </c>
-      <c r="F2">
-        <v>275.09</v>
-      </c>
-      <c r="G2">
-        <v>315.69</v>
-      </c>
-      <c r="H2">
-        <v>319.73</v>
-      </c>
-      <c r="I2">
-        <v>327.85</v>
-      </c>
-      <c r="J2">
-        <v>346.56</v>
-      </c>
-      <c r="K2">
-        <v>345.33</v>
-      </c>
-      <c r="L2">
-        <v>330.41</v>
-      </c>
-      <c r="M2">
-        <v>303.06</v>
-      </c>
-      <c r="N2">
-        <v>295.65</v>
-      </c>
-      <c r="O2">
-        <v>302.06</v>
-      </c>
-      <c r="P2">
-        <v>322.42</v>
-      </c>
-      <c r="Q2">
-        <v>265.23</v>
-      </c>
-      <c r="R2">
-        <v>273.71</v>
-      </c>
-      <c r="S2">
-        <v>306.58</v>
-      </c>
-      <c r="T2">
-        <v>300.19</v>
-      </c>
-      <c r="U2">
-        <v>290.09</v>
-      </c>
-      <c r="V2">
-        <v>288.2</v>
-      </c>
-      <c r="W2">
-        <v>303.69</v>
-      </c>
-      <c r="X2">
-        <v>279.67</v>
-      </c>
-      <c r="Y2">
-        <v>267.79</v>
-      </c>
-      <c r="Z2">
-        <v>278.64</v>
-      </c>
-      <c r="AA2">
-        <v>267.59</v>
-      </c>
-      <c r="AB2">
-        <v>207.28</v>
-      </c>
-      <c r="AC2">
-        <v>242.94</v>
-      </c>
-      <c r="AD2">
-        <v>270.95</v>
-      </c>
-      <c r="AE2">
-        <v>290.18</v>
-      </c>
-      <c r="AF2">
-        <v>279.35</v>
-      </c>
-      <c r="AG2">
-        <v>267.65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34">
-      <c r="A3" t="s">
-        <v>35</v>
       </c>
       <c r="B3">
         <v>131893</v>
@@ -4666,21 +4396,6 @@
         <v>131893</v>
       </c>
       <c r="AB3">
-        <v>131893</v>
-      </c>
-      <c r="AC3">
-        <v>131893</v>
-      </c>
-      <c r="AD3">
-        <v>131893</v>
-      </c>
-      <c r="AE3">
-        <v>131893</v>
-      </c>
-      <c r="AF3">
-        <v>131893</v>
-      </c>
-      <c r="AG3">
         <v>131893</v>
       </c>
     </row>
@@ -4706,7 +4421,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -4722,12 +4437,12 @@
     <col min="6" max="6" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="21.137695" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="13" max="13" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="21.137695" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="12.854004" bestFit="true" customWidth="true" style="0"/>
@@ -4742,15 +4457,10 @@
     <col min="26" max="26" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="27" max="27" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="28" max="28" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="29" max="29" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="30" max="30" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="31" max="31" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="32" max="32" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="33" max="33" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="34" max="34" width="9.10" bestFit="true" style="0"/>
+    <col min="29" max="29" width="9.10" bestFit="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4835,126 +4545,96 @@
       <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" t="s">
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="B2">
+        <v>101261.34</v>
+      </c>
+      <c r="C2">
+        <v>101398.29</v>
+      </c>
+      <c r="D2">
+        <v>101486.67</v>
+      </c>
+      <c r="E2">
+        <v>101554.31</v>
+      </c>
+      <c r="F2">
+        <v>101621.67</v>
+      </c>
+      <c r="G2">
+        <v>101673.79</v>
+      </c>
+      <c r="H2">
+        <v>63421.07</v>
+      </c>
+      <c r="I2">
+        <v>82245.82000000001</v>
+      </c>
+      <c r="J2">
+        <v>101764.36</v>
+      </c>
+      <c r="K2">
+        <v>101960.31</v>
+      </c>
+      <c r="L2">
+        <v>102009</v>
+      </c>
+      <c r="M2">
+        <v>102048.33</v>
+      </c>
+      <c r="N2">
+        <v>102132.01</v>
+      </c>
+      <c r="O2">
+        <v>102213.68</v>
+      </c>
+      <c r="P2">
+        <v>102298.33</v>
+      </c>
+      <c r="Q2">
+        <v>102394</v>
+      </c>
+      <c r="R2">
+        <v>102491</v>
+      </c>
+      <c r="S2">
+        <v>102592.33</v>
+      </c>
+      <c r="T2">
+        <v>102697.88</v>
+      </c>
+      <c r="U2">
+        <v>102835.41</v>
+      </c>
+      <c r="V2">
+        <v>102929.3</v>
+      </c>
+      <c r="W2">
+        <v>64282.13</v>
+      </c>
+      <c r="X2">
+        <v>82907</v>
+      </c>
+      <c r="Y2">
+        <v>103096.16</v>
+      </c>
+      <c r="Z2">
+        <v>103201.88</v>
+      </c>
+      <c r="AA2">
+        <v>103305.74</v>
+      </c>
+      <c r="AB2">
+        <v>103397.87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
+      <c r="A3" t="s">
         <v>30</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2">
-        <v>100890.61</v>
-      </c>
-      <c r="C2">
-        <v>100971.33</v>
-      </c>
-      <c r="D2">
-        <v>101048.33</v>
-      </c>
-      <c r="E2">
-        <v>101130.67</v>
-      </c>
-      <c r="F2">
-        <v>101171.67</v>
-      </c>
-      <c r="G2">
-        <v>101261.34</v>
-      </c>
-      <c r="H2">
-        <v>101398.29</v>
-      </c>
-      <c r="I2">
-        <v>101486.67</v>
-      </c>
-      <c r="J2">
-        <v>101554.31</v>
-      </c>
-      <c r="K2">
-        <v>101621.67</v>
-      </c>
-      <c r="L2">
-        <v>101673.79</v>
-      </c>
-      <c r="M2">
-        <v>63421.07</v>
-      </c>
-      <c r="N2">
-        <v>82245.82000000001</v>
-      </c>
-      <c r="O2">
-        <v>101764.36</v>
-      </c>
-      <c r="P2">
-        <v>101960.31</v>
-      </c>
-      <c r="Q2">
-        <v>102009</v>
-      </c>
-      <c r="R2">
-        <v>102048.33</v>
-      </c>
-      <c r="S2">
-        <v>102132.01</v>
-      </c>
-      <c r="T2">
-        <v>102213.68</v>
-      </c>
-      <c r="U2">
-        <v>102298.33</v>
-      </c>
-      <c r="V2">
-        <v>102394</v>
-      </c>
-      <c r="W2">
-        <v>102491</v>
-      </c>
-      <c r="X2">
-        <v>102592.33</v>
-      </c>
-      <c r="Y2">
-        <v>102697.88</v>
-      </c>
-      <c r="Z2">
-        <v>102835.41</v>
-      </c>
-      <c r="AA2">
-        <v>102929.3</v>
-      </c>
-      <c r="AB2">
-        <v>64282.13</v>
-      </c>
-      <c r="AC2">
-        <v>82907</v>
-      </c>
-      <c r="AD2">
-        <v>103096.16</v>
-      </c>
-      <c r="AE2">
-        <v>103201.88</v>
-      </c>
-      <c r="AF2">
-        <v>103305.74</v>
-      </c>
-      <c r="AG2">
-        <v>103397.87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34">
-      <c r="A3" t="s">
-        <v>35</v>
       </c>
       <c r="B3">
         <v>563310</v>
@@ -5035,21 +4715,6 @@
         <v>563310</v>
       </c>
       <c r="AB3">
-        <v>563310</v>
-      </c>
-      <c r="AC3">
-        <v>563310</v>
-      </c>
-      <c r="AD3">
-        <v>563310</v>
-      </c>
-      <c r="AE3">
-        <v>563310</v>
-      </c>
-      <c r="AF3">
-        <v>563310</v>
-      </c>
-      <c r="AG3">
         <v>563310</v>
       </c>
     </row>
@@ -5107,54 +4772,54 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>27</v>
-      </c>
-      <c r="L1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>0.06</v>
@@ -5204,7 +4869,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>0.06</v>
@@ -5254,7 +4919,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>0.06</v>
@@ -5356,54 +5021,54 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>27</v>
-      </c>
-      <c r="L1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B2">
         <v>827.35</v>
@@ -5453,7 +5118,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B3">
         <v>3834</v>
@@ -5555,54 +5220,54 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>27</v>
-      </c>
-      <c r="L1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B2">
         <v>1764.79</v>
@@ -5652,7 +5317,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B3">
         <v>4017</v>
@@ -5754,54 +5419,54 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>27</v>
-      </c>
-      <c r="L1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>1.59</v>
@@ -5851,7 +5516,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>1.58</v>
@@ -5901,7 +5566,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>1.55</v>
